--- a/lista_clase.xlsx
+++ b/lista_clase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pj_sa_202601\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55138234-6CBC-433C-8D08-EBA7076F5565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB7E2F4-7C25-4B07-A0CC-FAACDE6196BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t xml:space="preserve">DOCENTE: </t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -790,6 +793,9 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="14" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="4" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -825,9 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="4" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -883,9 +886,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>221192</xdr:colOff>
+      <xdr:colOff>218017</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>142459</xdr:rowOff>
+      <xdr:rowOff>145634</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1292,7 +1295,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1310,54 +1313,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31"/>
@@ -1376,10 +1379,10 @@
       <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1396,10 +1399,10 @@
       <c r="B7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="18" t="s">
         <v>10</v>
       </c>
@@ -1416,10 +1419,10 @@
       <c r="B8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="48">
         <v>20</v>
       </c>
-      <c r="D8" s="47"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="18" t="s">
         <v>11</v>
       </c>
@@ -1456,10 +1459,10 @@
       <c r="D10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="29" t="s">
         <v>5</v>
       </c>
@@ -1493,10 +1496,12 @@
       <c r="G11" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="45">
         <v>0.05</v>
       </c>
-      <c r="I11" s="43"/>
+      <c r="I11" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1519,10 +1524,12 @@
       <c r="G12" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="45">
         <v>0.05</v>
       </c>
-      <c r="I12" s="43"/>
+      <c r="I12" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1546,7 +1553,9 @@
         <v>36</v>
       </c>
       <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="I13" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1569,10 +1578,12 @@
       <c r="G14" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="45">
         <v>0.05</v>
       </c>
-      <c r="I14" s="43"/>
+      <c r="I14" s="43" t="s">
+        <v>37</v>
+      </c>
       <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1595,10 +1606,12 @@
       <c r="G15" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="I15" s="43"/>
+      <c r="H15" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1621,10 +1634,12 @@
       <c r="G16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="45">
         <v>0.05</v>
       </c>
-      <c r="I16" s="43"/>
+      <c r="I16" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1647,8 +1662,12 @@
       <c r="G17" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="H17" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="J17" s="43"/>
     </row>
   </sheetData>
@@ -1702,59 +1721,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="str">
+      <c r="A1" s="52" t="str">
         <f>NOTAS!A1</f>
         <v xml:space="preserve">                       MAESTRÍA EN ANALÍTICA Y GERENCIA DE DATOS - COHORTE - 5</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34"/>
@@ -1775,11 +1794,11 @@
         <f>NOTAS!B6</f>
         <v xml:space="preserve">MÓDULO: </v>
       </c>
-      <c r="C6" s="48" t="str">
+      <c r="C6" s="49" t="str">
         <f>+NOTAS!C6</f>
         <v>CASOS DE ESTUDIO APLICADOS AL SECTOR FINANCIERO</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="18" t="str">
         <f>NOTAS!E6</f>
         <v>CÓDIGO:</v>
@@ -1801,11 +1820,11 @@
         <f>NOTAS!B7</f>
         <v xml:space="preserve">DOCENTE: </v>
       </c>
-      <c r="C7" s="48" t="str">
+      <c r="C7" s="49" t="str">
         <f>+NOTAS!C7</f>
         <v>XIMENA QUIROGA</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="18" t="str">
         <f>NOTAS!E7</f>
         <v>PERIODO:</v>
@@ -1826,11 +1845,11 @@
         <f>NOTAS!B8</f>
         <v xml:space="preserve">N° HORAS: </v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="49">
         <f>+NOTAS!C8</f>
         <v>20</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="18" t="str">
         <f>NOTAS!E8</f>
         <v>AÑO:</v>
